--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok Pansare\Desktop\Projects\Internships\InHouse Internship\InternshipPortal\static\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB825DF1-14A8-42F1-B1EE-89E7C4896969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4D717D-4C0E-464B-81E9-AB9BEBD3D9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE A" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,15 @@
     <sheet name="BE B" sheetId="6" r:id="rId6"/>
     <sheet name="BE C" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="A">'SE A'!$WF:$WF</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="1191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1191">
   <si>
     <t>Roll No.</t>
   </si>
@@ -4634,60 +4637,60 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -5098,20 +5101,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="WF1" sqref="WF1:WF1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" customWidth="1"/>
+    <col min="9" max="9" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5137,7 +5143,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
@@ -5151,7 +5157,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -5165,7 +5171,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
@@ -5179,7 +5185,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
@@ -5193,7 +5199,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
@@ -5207,7 +5213,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
@@ -5221,7 +5227,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
@@ -5235,7 +5241,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
@@ -5249,7 +5255,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
@@ -5263,7 +5269,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5283,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
@@ -5291,7 +5297,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
@@ -5305,7 +5311,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
@@ -5319,7 +5325,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>28</v>
       </c>
@@ -5333,7 +5339,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>30</v>
       </c>
@@ -5347,7 +5353,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>32</v>
       </c>
@@ -5361,7 +5367,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>34</v>
       </c>
@@ -5375,7 +5381,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
@@ -5389,7 +5395,7 @@
       <c r="G19" s="160"/>
       <c r="H19" s="160"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>38</v>
       </c>
@@ -5403,7 +5409,7 @@
       <c r="G20" s="159"/>
       <c r="H20" s="159"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5417,7 +5423,7 @@
       <c r="G21" s="159"/>
       <c r="H21" s="159"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="146" t="s">
         <v>42</v>
       </c>
@@ -5431,7 +5437,7 @@
       <c r="G22" s="159"/>
       <c r="H22" s="159"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="146" t="s">
         <v>44</v>
       </c>
@@ -5445,7 +5451,7 @@
       <c r="G23" s="159"/>
       <c r="H23" s="159"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="146" t="s">
         <v>46</v>
       </c>
@@ -5459,7 +5465,7 @@
       <c r="G24" s="159"/>
       <c r="H24" s="159"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="146" t="s">
         <v>48</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="240" t="s">
         <v>50</v>
       </c>
@@ -5517,7 +5523,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="240" t="s">
         <v>50</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="147" t="s">
         <v>52</v>
       </c>
@@ -5560,7 +5566,7 @@
       <c r="G28" s="159"/>
       <c r="H28" s="159"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="146" t="s">
         <v>54</v>
       </c>
@@ -5574,7 +5580,7 @@
       <c r="G29" s="159"/>
       <c r="H29" s="159"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="146" t="s">
         <v>56</v>
       </c>
@@ -5598,7 +5604,7 @@
       </c>
       <c r="H30" s="159"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="146" t="s">
         <v>58</v>
       </c>
@@ -5612,7 +5618,7 @@
       <c r="G31" s="159"/>
       <c r="H31" s="159"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="146" t="s">
         <v>60</v>
       </c>
@@ -5626,7 +5632,7 @@
       <c r="G32" s="159"/>
       <c r="H32" s="159"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="146" t="s">
         <v>62</v>
       </c>
@@ -5650,7 +5656,7 @@
       </c>
       <c r="H33" s="159"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="146" t="s">
         <v>64</v>
       </c>
@@ -5664,7 +5670,7 @@
       <c r="G34" s="159"/>
       <c r="H34" s="159"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="146" t="s">
         <v>66</v>
       </c>
@@ -5678,7 +5684,7 @@
       <c r="G35" s="159"/>
       <c r="H35" s="159"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="146" t="s">
         <v>68</v>
       </c>
@@ -5692,7 +5698,7 @@
       <c r="G36" s="159"/>
       <c r="H36" s="159"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>70</v>
       </c>
@@ -5706,7 +5712,7 @@
       <c r="G37" s="159"/>
       <c r="H37" s="159"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>72</v>
       </c>
@@ -5720,7 +5726,7 @@
       <c r="G38" s="159"/>
       <c r="H38" s="159"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>74</v>
       </c>
@@ -5734,7 +5740,7 @@
       <c r="G39" s="159"/>
       <c r="H39" s="159"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>76</v>
       </c>
@@ -5748,7 +5754,7 @@
       <c r="G40" s="159"/>
       <c r="H40" s="159"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>78</v>
       </c>
@@ -5762,7 +5768,7 @@
       <c r="G41" s="159"/>
       <c r="H41" s="159"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>80</v>
       </c>
@@ -5776,7 +5782,7 @@
       <c r="G42" s="159"/>
       <c r="H42" s="159"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>82</v>
       </c>
@@ -5790,7 +5796,7 @@
       <c r="G43" s="159"/>
       <c r="H43" s="159"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>84</v>
       </c>
@@ -5804,7 +5810,7 @@
       <c r="G44" s="159"/>
       <c r="H44" s="159"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>86</v>
       </c>
@@ -5818,7 +5824,7 @@
       <c r="G45" s="159"/>
       <c r="H45" s="159"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>88</v>
       </c>
@@ -5832,7 +5838,7 @@
       <c r="G46" s="159"/>
       <c r="H46" s="159"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>90</v>
       </c>
@@ -5846,7 +5852,7 @@
       <c r="G47" s="159"/>
       <c r="H47" s="159"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
         <v>92</v>
       </c>
@@ -5860,7 +5866,7 @@
       <c r="G48" s="159"/>
       <c r="H48" s="159"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>94</v>
       </c>
@@ -5884,7 +5890,7 @@
       </c>
       <c r="H49" s="159"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>96</v>
       </c>
@@ -5908,7 +5914,7 @@
       </c>
       <c r="H50" s="162"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>98</v>
       </c>
@@ -5922,7 +5928,7 @@
       <c r="G51" s="159"/>
       <c r="H51" s="159"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>100</v>
       </c>
@@ -5936,7 +5942,7 @@
       <c r="G52" s="159"/>
       <c r="H52" s="159"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
         <v>102</v>
       </c>
@@ -5950,7 +5956,7 @@
       <c r="G53" s="159"/>
       <c r="H53" s="159"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>104</v>
       </c>
@@ -5964,7 +5970,7 @@
       <c r="G54" s="159"/>
       <c r="H54" s="159"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>106</v>
       </c>
@@ -5978,7 +5984,7 @@
       <c r="G55" s="159"/>
       <c r="H55" s="159"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>108</v>
       </c>
@@ -5992,7 +5998,7 @@
       <c r="G56" s="165"/>
       <c r="H56" s="165"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>110</v>
       </c>
@@ -6006,7 +6012,7 @@
       <c r="G57" s="159"/>
       <c r="H57" s="159"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>112</v>
       </c>
@@ -6020,7 +6026,7 @@
       <c r="G58" s="159"/>
       <c r="H58" s="159"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>114</v>
       </c>
@@ -6049,7 +6055,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>116</v>
       </c>
@@ -6063,7 +6069,7 @@
       <c r="G60" s="159"/>
       <c r="H60" s="159"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>118</v>
       </c>
@@ -6077,7 +6083,7 @@
       <c r="G61" s="159"/>
       <c r="H61" s="159"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>120</v>
       </c>
@@ -6091,7 +6097,7 @@
       <c r="G62" s="159"/>
       <c r="H62" s="159"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>122</v>
       </c>
@@ -6105,7 +6111,7 @@
       <c r="G63" s="159"/>
       <c r="H63" s="159"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>124</v>
       </c>
@@ -6119,7 +6125,7 @@
       <c r="G64" s="159"/>
       <c r="H64" s="159"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>126</v>
       </c>
@@ -6133,7 +6139,7 @@
       <c r="G65" s="159"/>
       <c r="H65" s="159"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>128</v>
       </c>
@@ -6147,7 +6153,7 @@
       <c r="G66" s="159"/>
       <c r="H66" s="159"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>130</v>
       </c>
@@ -6161,7 +6167,7 @@
       <c r="G67" s="159"/>
       <c r="H67" s="159"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>132</v>
       </c>
@@ -6175,7 +6181,7 @@
       <c r="G68" s="159"/>
       <c r="H68" s="159"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>134</v>
       </c>
@@ -6189,7 +6195,7 @@
       <c r="G69" s="159"/>
       <c r="H69" s="159"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>136</v>
       </c>
@@ -6203,7 +6209,7 @@
       <c r="G70" s="159"/>
       <c r="H70" s="159"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>138</v>
       </c>
@@ -6217,7 +6223,7 @@
       <c r="G71" s="159"/>
       <c r="H71" s="159"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>140</v>
       </c>
@@ -6231,7 +6237,7 @@
       <c r="G72" s="159"/>
       <c r="H72" s="159"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>966</v>
       </c>
@@ -6245,7 +6251,7 @@
       <c r="G73" s="159"/>
       <c r="H73" s="159"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="36" t="s">
         <v>968</v>
       </c>
@@ -6259,7 +6265,7 @@
       <c r="G74" s="159"/>
       <c r="H74" s="159"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="36" t="s">
         <v>990</v>
       </c>
@@ -6273,7 +6279,7 @@
       <c r="G75" s="159"/>
       <c r="H75" s="159"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="151" t="s">
         <v>1034</v>
       </c>
@@ -6287,7 +6293,7 @@
       <c r="G76" s="159"/>
       <c r="H76" s="159"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="151" t="s">
         <v>1036</v>
       </c>
@@ -6301,7 +6307,7 @@
       <c r="G77" s="159"/>
       <c r="H77" s="159"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="151" t="s">
         <v>1038</v>
       </c>
@@ -6315,7 +6321,7 @@
       <c r="G78" s="159"/>
       <c r="H78" s="159"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="151" t="s">
         <v>1040</v>
       </c>
@@ -6329,7 +6335,7 @@
       <c r="G79" s="159"/>
       <c r="H79" s="159"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="151" t="s">
         <v>1042</v>
       </c>
@@ -6343,7 +6349,7 @@
       <c r="G80" s="159"/>
       <c r="H80" s="159"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="151" t="s">
         <v>1044</v>
       </c>
@@ -6357,7 +6363,7 @@
       <c r="G81" s="159"/>
       <c r="H81" s="159"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="151" t="s">
         <v>1046</v>
       </c>
@@ -6371,7 +6377,7 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="151" t="s">
         <v>1048</v>
       </c>
@@ -6385,7 +6391,7 @@
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="151" t="s">
         <v>1050</v>
       </c>
@@ -6399,7 +6405,7 @@
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="151" t="s">
         <v>1052</v>
       </c>
@@ -6413,7 +6419,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>8</v>
       </c>
@@ -6431,27 +6437,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6477,7 +6483,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>142</v>
       </c>
@@ -6491,7 +6497,7 @@
       <c r="G2" s="49"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>144</v>
       </c>
@@ -6505,7 +6511,7 @@
       <c r="G3" s="166"/>
       <c r="H3" s="160"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>146</v>
       </c>
@@ -6519,7 +6525,7 @@
       <c r="G4" s="49"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="146" t="s">
         <v>148</v>
       </c>
@@ -6536,7 +6542,7 @@
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>150</v>
       </c>
@@ -6550,7 +6556,7 @@
       <c r="G6" s="49"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>152</v>
       </c>
@@ -6564,7 +6570,7 @@
       <c r="G7" s="49"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>154</v>
       </c>
@@ -6578,7 +6584,7 @@
       <c r="G8" s="49"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>156</v>
       </c>
@@ -6592,7 +6598,7 @@
       <c r="G9" s="239"/>
       <c r="H9" s="232"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>158</v>
       </c>
@@ -6606,7 +6612,7 @@
       <c r="G10" s="49"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>160</v>
       </c>
@@ -6620,7 +6626,7 @@
       <c r="G11" s="49"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>162</v>
       </c>
@@ -6634,7 +6640,7 @@
       <c r="G12" s="49"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>164</v>
       </c>
@@ -6648,7 +6654,7 @@
       <c r="G13" s="49"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>166</v>
       </c>
@@ -6662,7 +6668,7 @@
       <c r="G14" s="49"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>168</v>
       </c>
@@ -6676,7 +6682,7 @@
       <c r="G15" s="49"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>170</v>
       </c>
@@ -6690,7 +6696,7 @@
       <c r="G16" s="49"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>172</v>
       </c>
@@ -6704,7 +6710,7 @@
       <c r="G17" s="49"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>174</v>
       </c>
@@ -6718,7 +6724,7 @@
       <c r="G18" s="49"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>176</v>
       </c>
@@ -6732,7 +6738,7 @@
       <c r="G19" s="166"/>
       <c r="H19" s="160"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>178</v>
       </c>
@@ -6746,7 +6752,7 @@
       <c r="G20" s="49"/>
       <c r="H20" s="57"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>180</v>
       </c>
@@ -6760,7 +6766,7 @@
       <c r="G21" s="49"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>182</v>
       </c>
@@ -6774,7 +6780,7 @@
       <c r="G22" s="49"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>184</v>
       </c>
@@ -6788,7 +6794,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>186</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
         <v>188</v>
       </c>
@@ -6839,12 +6845,14 @@
       <c r="G25" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="H25" s="59"/>
+      <c r="H25" s="59" t="s">
+        <v>1002</v>
+      </c>
       <c r="I25" s="50" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
         <v>190</v>
       </c>
@@ -6858,7 +6866,7 @@
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>192</v>
       </c>
@@ -6872,7 +6880,7 @@
       <c r="G27" s="49"/>
       <c r="H27" s="49"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>194</v>
       </c>
@@ -6886,7 +6894,7 @@
       <c r="G28" s="49"/>
       <c r="H28" s="49"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>196</v>
       </c>
@@ -6910,7 +6918,7 @@
       </c>
       <c r="H29" s="49"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>198</v>
       </c>
@@ -6924,7 +6932,7 @@
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>200</v>
       </c>
@@ -6938,7 +6946,7 @@
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>202</v>
       </c>
@@ -6964,7 +6972,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>204</v>
       </c>
@@ -6978,7 +6986,7 @@
       <c r="G33" s="49"/>
       <c r="H33" s="57"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>205</v>
       </c>
@@ -6992,7 +7000,7 @@
       <c r="G34" s="49"/>
       <c r="H34" s="57"/>
     </row>
-    <row r="35" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>207</v>
       </c>
@@ -7016,7 +7024,7 @@
       </c>
       <c r="H35" s="57"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>209</v>
       </c>
@@ -7030,7 +7038,7 @@
       <c r="G36" s="49"/>
       <c r="H36" s="57"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>211</v>
       </c>
@@ -7044,7 +7052,7 @@
       <c r="G37" s="49"/>
       <c r="H37" s="57"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>213</v>
       </c>
@@ -7058,7 +7066,7 @@
       <c r="G38" s="49"/>
       <c r="H38" s="57"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>215</v>
       </c>
@@ -7072,7 +7080,7 @@
       <c r="G39" s="49"/>
       <c r="H39" s="57"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>217</v>
       </c>
@@ -7086,7 +7094,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="57"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>219</v>
       </c>
@@ -7100,7 +7108,7 @@
       <c r="G41" s="49"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>221</v>
       </c>
@@ -7114,7 +7122,7 @@
       <c r="G42" s="49"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>223</v>
       </c>
@@ -7128,7 +7136,7 @@
       <c r="G43" s="49"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>225</v>
       </c>
@@ -7142,7 +7150,7 @@
       <c r="G44" s="49"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>227</v>
       </c>
@@ -7164,12 +7172,14 @@
       <c r="G45" s="53" t="s">
         <v>1000</v>
       </c>
-      <c r="H45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>1002</v>
+      </c>
       <c r="I45" s="50" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>229</v>
       </c>
@@ -7183,7 +7193,7 @@
       <c r="G46" s="49"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>231</v>
       </c>
@@ -7197,7 +7207,7 @@
       <c r="G47" s="49"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="147" t="s">
         <v>232</v>
       </c>
@@ -7214,7 +7224,7 @@
       <c r="J48" s="58"/>
       <c r="K48" s="58"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="146" t="s">
         <v>234</v>
       </c>
@@ -7231,7 +7241,7 @@
       <c r="J49" s="58"/>
       <c r="K49" s="58"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="146" t="s">
         <v>236</v>
       </c>
@@ -7248,7 +7258,7 @@
       <c r="J50" s="58"/>
       <c r="K50" s="58"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="146" t="s">
         <v>238</v>
       </c>
@@ -7265,7 +7275,7 @@
       <c r="J51" s="58"/>
       <c r="K51" s="58"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="146" t="s">
         <v>240</v>
       </c>
@@ -7282,7 +7292,7 @@
       <c r="J52" s="58"/>
       <c r="K52" s="58"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="146" t="s">
         <v>242</v>
       </c>
@@ -7304,14 +7314,16 @@
       <c r="G53" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="H53" s="59"/>
+      <c r="H53" s="59" t="s">
+        <v>1002</v>
+      </c>
       <c r="I53" s="54" t="s">
         <v>1159</v>
       </c>
       <c r="J53" s="58"/>
       <c r="K53" s="58"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="146" t="s">
         <v>244</v>
       </c>
@@ -7328,7 +7340,7 @@
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="146" t="s">
         <v>246</v>
       </c>
@@ -7345,7 +7357,7 @@
       <c r="J55" s="58"/>
       <c r="K55" s="58"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="146" t="s">
         <v>248</v>
       </c>
@@ -7372,7 +7384,7 @@
       <c r="J56" s="58"/>
       <c r="K56" s="58"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="146" t="s">
         <v>250</v>
       </c>
@@ -7389,7 +7401,7 @@
       <c r="J57" s="58"/>
       <c r="K57" s="58"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="146" t="s">
         <v>252</v>
       </c>
@@ -7406,7 +7418,7 @@
       <c r="J58" s="58"/>
       <c r="K58" s="58"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="146" t="s">
         <v>254</v>
       </c>
@@ -7423,7 +7435,7 @@
       <c r="J59" s="58"/>
       <c r="K59" s="58"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="146" t="s">
         <v>256</v>
       </c>
@@ -7440,7 +7452,7 @@
       <c r="J60" s="58"/>
       <c r="K60" s="58"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="146" t="s">
         <v>258</v>
       </c>
@@ -7457,7 +7469,7 @@
       <c r="J61" s="58"/>
       <c r="K61" s="58"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="146" t="s">
         <v>260</v>
       </c>
@@ -7474,7 +7486,7 @@
       <c r="J62" s="58"/>
       <c r="K62" s="58"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="146" t="s">
         <v>262</v>
       </c>
@@ -7491,7 +7503,7 @@
       <c r="J63" s="58"/>
       <c r="K63" s="58"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="146" t="s">
         <v>264</v>
       </c>
@@ -7513,14 +7525,16 @@
       <c r="G64" s="53" t="s">
         <v>1001</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="15" t="s">
+        <v>1002</v>
+      </c>
       <c r="I64" s="50" t="s">
         <v>1161</v>
       </c>
       <c r="J64" s="58"/>
       <c r="K64" s="58"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="146" t="s">
         <v>266</v>
       </c>
@@ -7537,7 +7551,7 @@
       <c r="J65" s="58"/>
       <c r="K65" s="58"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="148" t="s">
         <v>268</v>
       </c>
@@ -7554,7 +7568,7 @@
       <c r="J66" s="58"/>
       <c r="K66" s="58"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23" t="s">
         <v>270</v>
       </c>
@@ -7571,7 +7585,7 @@
       <c r="J67" s="58"/>
       <c r="K67" s="58"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="152" t="s">
         <v>1054</v>
       </c>
@@ -7585,7 +7599,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="152" t="s">
         <v>1056</v>
       </c>
@@ -7599,7 +7613,7 @@
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="152" t="s">
         <v>1058</v>
       </c>
@@ -7613,7 +7627,7 @@
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="152" t="s">
         <v>1060</v>
       </c>
@@ -7627,7 +7641,7 @@
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="152" t="s">
         <v>1062</v>
       </c>
@@ -7641,7 +7655,7 @@
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23" t="s">
         <v>1010</v>
       </c>
@@ -7658,7 +7672,7 @@
       <c r="J73" s="55"/>
       <c r="K73" s="55"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="152" t="s">
         <v>1064</v>
       </c>
@@ -7672,7 +7686,7 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="152" t="s">
         <v>1066</v>
       </c>
@@ -7686,7 +7700,7 @@
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="152" t="s">
         <v>1068</v>
       </c>
@@ -7699,11 +7713,6 @@
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7717,23 +7726,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="124" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="124"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="124" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="124"/>
+    <col min="9" max="9" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7759,7 +7770,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>272</v>
       </c>
@@ -7773,7 +7784,7 @@
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>274</v>
       </c>
@@ -7787,7 +7798,7 @@
       <c r="G3" s="88"/>
       <c r="H3" s="88"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>276</v>
       </c>
@@ -7801,7 +7812,7 @@
       <c r="G4" s="236"/>
       <c r="H4" s="236"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>278</v>
       </c>
@@ -7815,7 +7826,7 @@
       <c r="G5" s="88"/>
       <c r="H5" s="88"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>280</v>
       </c>
@@ -7829,7 +7840,7 @@
       <c r="G6" s="173"/>
       <c r="H6" s="173"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>282</v>
       </c>
@@ -7855,7 +7866,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>284</v>
       </c>
@@ -7869,7 +7880,7 @@
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
     </row>
-    <row r="9" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="205" t="s">
         <v>286</v>
       </c>
@@ -7883,7 +7894,7 @@
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>288</v>
       </c>
@@ -7897,7 +7908,7 @@
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>290</v>
       </c>
@@ -7911,7 +7922,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>292</v>
       </c>
@@ -7925,7 +7936,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>294</v>
       </c>
@@ -7939,7 +7950,7 @@
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>296</v>
       </c>
@@ -7961,12 +7972,14 @@
       <c r="G14" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="H14" s="57"/>
+      <c r="H14" s="57" t="s">
+        <v>1002</v>
+      </c>
       <c r="I14" s="54" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>298</v>
       </c>
@@ -7980,7 +7993,7 @@
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>300</v>
       </c>
@@ -7994,7 +8007,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>302</v>
       </c>
@@ -8008,7 +8021,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="53"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>304</v>
       </c>
@@ -8022,7 +8035,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>306</v>
       </c>
@@ -8036,7 +8049,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>308</v>
       </c>
@@ -8050,7 +8063,7 @@
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>310</v>
       </c>
@@ -8064,7 +8077,7 @@
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>312</v>
       </c>
@@ -8078,7 +8091,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>314</v>
       </c>
@@ -8092,7 +8105,7 @@
       <c r="G23" s="53"/>
       <c r="H23" s="53"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>316</v>
       </c>
@@ -8114,12 +8127,14 @@
       <c r="G24" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="H24" s="59"/>
+      <c r="H24" s="59" t="s">
+        <v>1002</v>
+      </c>
       <c r="I24" s="234" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>318</v>
       </c>
@@ -8134,11 +8149,11 @@
       <c r="H25" s="56"/>
       <c r="I25" s="235"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="249" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="253" t="s">
         <v>320</v>
       </c>
-      <c r="B26" s="244" t="s">
+      <c r="B26" s="248" t="s">
         <v>321</v>
       </c>
       <c r="C26" s="59" t="s">
@@ -8156,14 +8171,16 @@
       <c r="G26" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="57" t="s">
+        <v>1002</v>
+      </c>
       <c r="I26" s="234" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="250"/>
-      <c r="B27" s="245"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="254"/>
+      <c r="B27" s="249"/>
       <c r="C27" s="59" t="s">
         <v>1016</v>
       </c>
@@ -8182,9 +8199,9 @@
       <c r="H27" s="56"/>
       <c r="I27" s="235"/>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="251"/>
-      <c r="B28" s="246"/>
+    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="255"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="113" t="s">
         <v>1084</v>
       </c>
@@ -8205,7 +8222,7 @@
       </c>
       <c r="I28" s="235"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>322</v>
       </c>
@@ -8219,7 +8236,7 @@
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>324</v>
       </c>
@@ -8233,7 +8250,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>326</v>
       </c>
@@ -8247,7 +8264,7 @@
       <c r="G31" s="53"/>
       <c r="H31" s="53"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>328</v>
       </c>
@@ -8261,7 +8278,7 @@
       <c r="G32" s="53"/>
       <c r="H32" s="53"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>330</v>
       </c>
@@ -8275,7 +8292,7 @@
       <c r="G33" s="53"/>
       <c r="H33" s="53"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>332</v>
       </c>
@@ -8289,7 +8306,7 @@
       <c r="G34" s="176"/>
       <c r="H34" s="176"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>334</v>
       </c>
@@ -8303,7 +8320,7 @@
       <c r="G35" s="53"/>
       <c r="H35" s="53"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>336</v>
       </c>
@@ -8328,7 +8345,7 @@
       <c r="H36" s="56"/>
       <c r="I36" s="58"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>338</v>
       </c>
@@ -8357,7 +8374,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>340</v>
       </c>
@@ -8372,7 +8389,7 @@
       <c r="H38" s="56"/>
       <c r="I38" s="58"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>342</v>
       </c>
@@ -8387,7 +8404,7 @@
       <c r="H39" s="56"/>
       <c r="I39" s="58"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>344</v>
       </c>
@@ -8402,7 +8419,7 @@
       <c r="H40" s="56"/>
       <c r="I40" s="58"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>346</v>
       </c>
@@ -8417,11 +8434,11 @@
       <c r="H41" s="238"/>
       <c r="I41" s="58"/>
     </row>
-    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="252" t="s">
+    <row r="42" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="256" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="247" t="s">
+      <c r="B42" s="251" t="s">
         <v>349</v>
       </c>
       <c r="C42" s="74" t="s">
@@ -8444,9 +8461,9 @@
       </c>
       <c r="I42" s="58"/>
     </row>
-    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="253"/>
-      <c r="B43" s="248"/>
+    <row r="43" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="257"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="59" t="s">
         <v>1011</v>
       </c>
@@ -8467,7 +8484,7 @@
       </c>
       <c r="I43" s="58"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>350</v>
       </c>
@@ -8476,7 +8493,7 @@
       </c>
       <c r="H44" s="176"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>352</v>
       </c>
@@ -8490,7 +8507,7 @@
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>354</v>
       </c>
@@ -8504,7 +8521,7 @@
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>356</v>
       </c>
@@ -8518,7 +8535,7 @@
       <c r="G47" s="53"/>
       <c r="H47" s="53"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>358</v>
       </c>
@@ -8532,7 +8549,7 @@
       <c r="G48" s="53"/>
       <c r="H48" s="53"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>360</v>
       </c>
@@ -8546,7 +8563,7 @@
       <c r="G49" s="53"/>
       <c r="H49" s="53"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>362</v>
       </c>
@@ -8560,7 +8577,7 @@
       <c r="G50" s="53"/>
       <c r="H50" s="53"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>364</v>
       </c>
@@ -8574,7 +8591,7 @@
       <c r="G51" s="53"/>
       <c r="H51" s="53"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>366</v>
       </c>
@@ -8588,7 +8605,7 @@
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>368</v>
       </c>
@@ -8602,7 +8619,7 @@
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>370</v>
       </c>
@@ -8616,7 +8633,7 @@
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>372</v>
       </c>
@@ -8630,7 +8647,7 @@
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>374</v>
       </c>
@@ -8644,7 +8661,7 @@
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>376</v>
       </c>
@@ -8658,7 +8675,7 @@
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>378</v>
       </c>
@@ -8672,7 +8689,7 @@
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>380</v>
       </c>
@@ -8686,7 +8703,7 @@
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>382</v>
       </c>
@@ -8700,7 +8717,7 @@
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>384</v>
       </c>
@@ -8714,7 +8731,7 @@
       <c r="G61" s="53"/>
       <c r="H61" s="53"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>386</v>
       </c>
@@ -8728,7 +8745,7 @@
       <c r="G62" s="53"/>
       <c r="H62" s="53"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>388</v>
       </c>
@@ -8753,7 +8770,7 @@
       <c r="H63" s="56"/>
       <c r="I63" s="58"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>390</v>
       </c>
@@ -8768,7 +8785,7 @@
       <c r="H64" s="56"/>
       <c r="I64" s="58"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>392</v>
       </c>
@@ -8783,7 +8800,7 @@
       <c r="H65" s="56"/>
       <c r="I65" s="58"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>394</v>
       </c>
@@ -8798,7 +8815,7 @@
       <c r="H66" s="56"/>
       <c r="I66" s="58"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>396</v>
       </c>
@@ -8813,7 +8830,7 @@
       <c r="H67" s="56"/>
       <c r="I67" s="58"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="31" t="s">
         <v>398</v>
       </c>
@@ -8828,7 +8845,7 @@
       <c r="H68" s="56"/>
       <c r="I68" s="58"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>400</v>
       </c>
@@ -8843,7 +8860,7 @@
       <c r="H69" s="56"/>
       <c r="I69" s="58"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="31" t="s">
         <v>402</v>
       </c>
@@ -8870,7 +8887,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>404</v>
       </c>
@@ -8885,7 +8902,7 @@
       <c r="H71" s="56"/>
       <c r="I71" s="58"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="31" t="s">
         <v>406</v>
       </c>
@@ -8900,7 +8917,7 @@
       <c r="H72" s="56"/>
       <c r="I72" s="58"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>408</v>
       </c>
@@ -8915,7 +8932,7 @@
       <c r="H73" s="56"/>
       <c r="I73" s="58"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>410</v>
       </c>
@@ -8930,7 +8947,7 @@
       <c r="H74" s="56"/>
       <c r="I74" s="58"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>970</v>
       </c>
@@ -8945,7 +8962,7 @@
       <c r="H75" s="173"/>
       <c r="I75" s="58"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
         <v>992</v>
       </c>
@@ -8960,7 +8977,7 @@
       <c r="H76" s="173"/>
       <c r="I76" s="58"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C77" s="58"/>
       <c r="D77" s="58"/>
       <c r="E77" s="58"/>
@@ -8969,7 +8986,7 @@
       <c r="H77" s="175"/>
       <c r="I77" s="58"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C78" s="58">
         <v>13</v>
       </c>
@@ -8980,7 +8997,7 @@
       <c r="H78" s="175"/>
       <c r="I78" s="58"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C79" s="58"/>
       <c r="D79" s="58"/>
       <c r="E79" s="58"/>
@@ -8989,7 +9006,7 @@
       <c r="H79" s="175"/>
       <c r="I79" s="58"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C80" s="58"/>
       <c r="D80" s="58"/>
       <c r="E80" s="58"/>
@@ -8998,7 +9015,7 @@
       <c r="H80" s="175"/>
       <c r="I80" s="58"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C81" s="58"/>
       <c r="D81" s="58"/>
       <c r="E81" s="58"/>
@@ -9007,7 +9024,7 @@
       <c r="H81" s="175"/>
       <c r="I81" s="58"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C82" s="58"/>
       <c r="D82" s="58"/>
       <c r="E82" s="58"/>
@@ -9016,7 +9033,7 @@
       <c r="H82" s="175"/>
       <c r="I82" s="58"/>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C83" s="58"/>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -9041,27 +9058,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="76" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="76" customWidth="1"/>
     <col min="3" max="3" width="26" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="76" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="76" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="76" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="137" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="137"/>
-    <col min="9" max="9" width="8.42578125" style="58"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="76" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="76" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="137" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="137"/>
+    <col min="9" max="9" width="8.44140625" style="58"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -9088,7 +9105,7 @@
       </c>
       <c r="I1" s="190"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>412</v>
       </c>
@@ -9117,7 +9134,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>414</v>
       </c>
@@ -9131,7 +9148,7 @@
       <c r="G3" s="82"/>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>416</v>
       </c>
@@ -9160,7 +9177,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>418</v>
       </c>
@@ -9174,7 +9191,7 @@
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>420</v>
       </c>
@@ -9196,11 +9213,9 @@
       <c r="G6" s="133" t="s">
         <v>1018</v>
       </c>
-      <c r="H6" s="133" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="133"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>422</v>
       </c>
@@ -9233,7 +9248,7 @@
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>424</v>
       </c>
@@ -9255,12 +9270,14 @@
       <c r="G8" s="133" t="s">
         <v>1001</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="59" t="s">
+        <v>1002</v>
+      </c>
       <c r="I8" s="54" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>426</v>
       </c>
@@ -9282,12 +9299,14 @@
       <c r="G9" s="226" t="s">
         <v>1018</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="82" t="s">
+        <v>1002</v>
+      </c>
       <c r="I9" s="54" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>428</v>
       </c>
@@ -9301,7 +9320,7 @@
       <c r="G10" s="227"/>
       <c r="H10" s="82"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>430</v>
       </c>
@@ -9323,11 +9342,9 @@
       <c r="G11" s="226" t="s">
         <v>1025</v>
       </c>
-      <c r="H11" s="133" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="133"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>432</v>
       </c>
@@ -9341,7 +9358,7 @@
       <c r="G12" s="227"/>
       <c r="H12" s="82"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>434</v>
       </c>
@@ -9355,7 +9372,7 @@
       <c r="G13" s="227"/>
       <c r="H13" s="82"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>436</v>
       </c>
@@ -9369,7 +9386,7 @@
       <c r="G14" s="227"/>
       <c r="H14" s="82"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>438</v>
       </c>
@@ -9383,7 +9400,7 @@
       <c r="G15" s="227"/>
       <c r="H15" s="82"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>440</v>
       </c>
@@ -9397,7 +9414,7 @@
       <c r="G16" s="227"/>
       <c r="H16" s="82"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>442</v>
       </c>
@@ -9411,7 +9428,7 @@
       <c r="G17" s="227"/>
       <c r="H17" s="82"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>444</v>
       </c>
@@ -9425,7 +9442,7 @@
       <c r="G18" s="227"/>
       <c r="H18" s="82"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>446</v>
       </c>
@@ -9439,7 +9456,7 @@
       <c r="G19" s="227"/>
       <c r="H19" s="82"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>448</v>
       </c>
@@ -9468,7 +9485,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>450</v>
       </c>
@@ -9482,7 +9499,7 @@
       <c r="G21" s="227"/>
       <c r="H21" s="82"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>452</v>
       </c>
@@ -9496,7 +9513,7 @@
       <c r="G22" s="227"/>
       <c r="H22" s="82"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>454</v>
       </c>
@@ -9510,7 +9527,7 @@
       <c r="G23" s="227"/>
       <c r="H23" s="82"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>456</v>
       </c>
@@ -9523,19 +9540,21 @@
       <c r="D24" s="79" t="s">
         <v>1098</v>
       </c>
-      <c r="E24" s="260">
+      <c r="E24" s="244">
         <v>44470</v>
       </c>
       <c r="F24" s="129">
         <v>44471</v>
       </c>
       <c r="G24" s="227"/>
-      <c r="H24" s="82"/>
+      <c r="H24" s="82" t="s">
+        <v>1002</v>
+      </c>
       <c r="I24" s="58" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>456</v>
       </c>
@@ -9555,13 +9574,15 @@
         <v>1189</v>
       </c>
       <c r="G25" s="226"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="261" t="s">
+      <c r="H25" s="133" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I25" s="245" t="s">
         <v>1125</v>
       </c>
-      <c r="J25" s="262"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="246"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>458</v>
       </c>
@@ -9581,12 +9602,14 @@
         <v>44377</v>
       </c>
       <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
+      <c r="H26" s="125" t="s">
+        <v>1002</v>
+      </c>
       <c r="I26" s="54" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>460</v>
       </c>
@@ -9611,11 +9634,11 @@
       <c r="H27" s="233" t="s">
         <v>1002</v>
       </c>
-      <c r="I27" s="263" t="s">
+      <c r="I27" s="247" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>460</v>
       </c>
@@ -9640,7 +9663,7 @@
       <c r="H28" s="219"/>
       <c r="I28" s="212"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>462</v>
       </c>
@@ -9655,7 +9678,7 @@
       <c r="H29" s="214"/>
       <c r="I29" s="215"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>464</v>
       </c>
@@ -9670,7 +9693,7 @@
       <c r="H30" s="214"/>
       <c r="I30" s="215"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>466</v>
       </c>
@@ -9685,7 +9708,7 @@
       <c r="H31" s="218"/>
       <c r="I31" s="215"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>468</v>
       </c>
@@ -9705,12 +9728,14 @@
         <v>44377</v>
       </c>
       <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
+      <c r="H32" s="214" t="s">
+        <v>1002</v>
+      </c>
       <c r="I32" s="209" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="29"/>
       <c r="B33" s="208"/>
       <c r="C33" s="219" t="s">
@@ -9731,7 +9756,7 @@
       <c r="H33" s="219"/>
       <c r="I33" s="215"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>470</v>
       </c>
@@ -9746,7 +9771,7 @@
       <c r="H34" s="214"/>
       <c r="I34" s="215"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>472</v>
       </c>
@@ -9761,7 +9786,7 @@
       <c r="H35" s="214"/>
       <c r="I35" s="215"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>474</v>
       </c>
@@ -9776,7 +9801,7 @@
       <c r="H36" s="221"/>
       <c r="I36" s="215"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>476</v>
       </c>
@@ -9791,7 +9816,7 @@
       <c r="H37" s="214"/>
       <c r="I37" s="215"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>478</v>
       </c>
@@ -9806,7 +9831,7 @@
       <c r="H38" s="214"/>
       <c r="I38" s="215"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>480</v>
       </c>
@@ -9828,12 +9853,14 @@
       <c r="G39" s="221" t="s">
         <v>1001</v>
       </c>
-      <c r="H39" s="214"/>
+      <c r="H39" s="214" t="s">
+        <v>1002</v>
+      </c>
       <c r="I39" s="209" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>482</v>
       </c>
@@ -9858,7 +9885,7 @@
       <c r="H40" s="214"/>
       <c r="I40" s="215"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>484</v>
       </c>
@@ -9873,7 +9900,7 @@
       <c r="H41" s="214"/>
       <c r="I41" s="215"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>486</v>
       </c>
@@ -9888,7 +9915,7 @@
       <c r="H42" s="214"/>
       <c r="I42" s="215"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>488</v>
       </c>
@@ -9903,7 +9930,7 @@
       <c r="H43" s="221"/>
       <c r="I43" s="215"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>490</v>
       </c>
@@ -9918,7 +9945,7 @@
       <c r="H44" s="214"/>
       <c r="I44" s="215"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>492</v>
       </c>
@@ -9943,7 +9970,7 @@
       <c r="H45" s="214"/>
       <c r="I45" s="215"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>494</v>
       </c>
@@ -9958,7 +9985,7 @@
       <c r="H46" s="214"/>
       <c r="I46" s="215"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>496</v>
       </c>
@@ -9973,7 +10000,7 @@
       <c r="H47" s="214"/>
       <c r="I47" s="215"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>498</v>
       </c>
@@ -9988,7 +10015,7 @@
       <c r="H48" s="214"/>
       <c r="I48" s="215"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>500</v>
       </c>
@@ -10003,7 +10030,7 @@
       <c r="H49" s="214"/>
       <c r="I49" s="215"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>502</v>
       </c>
@@ -10017,7 +10044,7 @@
       <c r="G50" s="82"/>
       <c r="H50" s="133"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>504</v>
       </c>
@@ -10031,7 +10058,7 @@
       <c r="G51" s="82"/>
       <c r="H51" s="82"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>506</v>
       </c>
@@ -10045,7 +10072,7 @@
       <c r="G52" s="82"/>
       <c r="H52" s="82"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>508</v>
       </c>
@@ -10059,7 +10086,7 @@
       <c r="G53" s="82"/>
       <c r="H53" s="82"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>510</v>
       </c>
@@ -10073,7 +10100,7 @@
       <c r="G54" s="133"/>
       <c r="H54" s="133"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>512</v>
       </c>
@@ -10087,7 +10114,7 @@
       <c r="G55" s="82"/>
       <c r="H55" s="82"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>514</v>
       </c>
@@ -10111,7 +10138,7 @@
       </c>
       <c r="H56" s="133"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>514</v>
       </c>
@@ -10133,7 +10160,7 @@
       <c r="G57" s="82"/>
       <c r="H57" s="133"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>514</v>
       </c>
@@ -10153,7 +10180,7 @@
       <c r="G58" s="60"/>
       <c r="H58" s="133"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>516</v>
       </c>
@@ -10175,12 +10202,14 @@
       <c r="G59" s="133" t="s">
         <v>1018</v>
       </c>
-      <c r="H59" s="82"/>
+      <c r="H59" s="82" t="s">
+        <v>1002</v>
+      </c>
       <c r="I59" s="54" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>518</v>
       </c>
@@ -10194,7 +10223,7 @@
       <c r="G60" s="82"/>
       <c r="H60" s="82"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>520</v>
       </c>
@@ -10214,12 +10243,14 @@
         <v>44388</v>
       </c>
       <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
+      <c r="H61" s="82" t="s">
+        <v>1002</v>
+      </c>
       <c r="I61" s="54" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>522</v>
       </c>
@@ -10241,12 +10272,14 @@
       <c r="G62" s="59" t="s">
         <v>1007</v>
       </c>
-      <c r="H62" s="82"/>
+      <c r="H62" s="82" t="s">
+        <v>1002</v>
+      </c>
       <c r="I62" s="54" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>522</v>
       </c>
@@ -10268,12 +10301,14 @@
       <c r="G63" s="59" t="s">
         <v>1000</v>
       </c>
-      <c r="H63" s="82"/>
+      <c r="H63" s="82" t="s">
+        <v>1002</v>
+      </c>
       <c r="I63" s="54" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>522</v>
       </c>
@@ -10297,7 +10332,7 @@
       </c>
       <c r="H64" s="59"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>524</v>
       </c>
@@ -10311,7 +10346,7 @@
       <c r="G65" s="133"/>
       <c r="H65" s="133"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>526</v>
       </c>
@@ -10325,11 +10360,11 @@
       <c r="G66" s="82"/>
       <c r="H66" s="133"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="257" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="261" t="s">
         <v>528</v>
       </c>
-      <c r="B67" s="259" t="s">
+      <c r="B67" s="263" t="s">
         <v>529</v>
       </c>
       <c r="C67" s="80"/>
@@ -10339,9 +10374,9 @@
       <c r="G67" s="82"/>
       <c r="H67" s="82"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="258"/>
-      <c r="B68" s="259"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="262"/>
+      <c r="B68" s="263"/>
       <c r="C68" s="80" t="s">
         <v>1015</v>
       </c>
@@ -10357,7 +10392,7 @@
       <c r="G68" s="82"/>
       <c r="H68" s="82"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
         <v>530</v>
       </c>
@@ -10380,10 +10415,13 @@
         <v>1001</v>
       </c>
       <c r="H69" s="59" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I69" s="58" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="63" t="s">
         <v>532</v>
       </c>
@@ -10397,7 +10435,7 @@
       <c r="G70" s="82"/>
       <c r="H70" s="82"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="63" t="s">
         <v>534</v>
       </c>
@@ -10411,7 +10449,7 @@
       <c r="G71" s="82"/>
       <c r="H71" s="82"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="63" t="s">
         <v>536</v>
       </c>
@@ -10425,11 +10463,11 @@
       <c r="G72" s="82"/>
       <c r="H72" s="82"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="255" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="259" t="s">
         <v>538</v>
       </c>
-      <c r="B73" s="254" t="s">
+      <c r="B73" s="258" t="s">
         <v>539</v>
       </c>
       <c r="C73" s="80"/>
@@ -10439,9 +10477,9 @@
       <c r="G73" s="82"/>
       <c r="H73" s="82"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="256"/>
-      <c r="B74" s="254"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="260"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="80"/>
       <c r="D74" s="136"/>
       <c r="E74" s="132"/>
@@ -10449,7 +10487,7 @@
       <c r="G74" s="82"/>
       <c r="H74" s="82"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
         <v>540</v>
       </c>
@@ -10463,7 +10501,7 @@
       <c r="G75" s="82"/>
       <c r="H75" s="82"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
         <v>542</v>
       </c>
@@ -10477,7 +10515,7 @@
       <c r="G76" s="82"/>
       <c r="H76" s="82"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="43" t="s">
         <v>544</v>
       </c>
@@ -10491,7 +10529,7 @@
       <c r="G77" s="82"/>
       <c r="H77" s="82"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
         <v>972</v>
       </c>
@@ -10515,7 +10553,7 @@
       </c>
       <c r="H78" s="82"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
         <v>974</v>
       </c>
@@ -10529,7 +10567,7 @@
       <c r="G79" s="82"/>
       <c r="H79" s="82"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
         <v>976</v>
       </c>
@@ -10543,7 +10581,7 @@
       <c r="G80" s="82"/>
       <c r="H80" s="82"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
         <v>988</v>
       </c>
@@ -10556,11 +10594,6 @@
       <c r="F81" s="82"/>
       <c r="G81" s="82"/>
       <c r="H81" s="82"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C87" s="76">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -10584,20 +10617,20 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10623,7 +10656,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>696</v>
       </c>
@@ -10637,7 +10670,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>698</v>
       </c>
@@ -10651,7 +10684,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>560</v>
       </c>
@@ -10673,11 +10706,14 @@
       <c r="G4" s="52" t="s">
         <v>1001</v>
       </c>
+      <c r="H4" t="s">
+        <v>1002</v>
+      </c>
       <c r="I4" s="50" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>564</v>
       </c>
@@ -10691,7 +10727,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>566</v>
       </c>
@@ -10705,7 +10741,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>572</v>
       </c>
@@ -10719,7 +10755,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>596</v>
       </c>
@@ -10733,7 +10769,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>642</v>
       </c>
@@ -10747,7 +10783,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="92" t="s">
         <v>646</v>
       </c>
@@ -10761,7 +10797,7 @@
       <c r="G10" s="55"/>
       <c r="H10" s="57"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>652</v>
       </c>
@@ -10775,7 +10811,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="92" t="s">
         <v>664</v>
       </c>
@@ -10789,7 +10825,7 @@
       <c r="G12" s="59"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>666</v>
       </c>
@@ -10803,7 +10839,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>668</v>
       </c>
@@ -10817,7 +10853,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>670</v>
       </c>
@@ -10831,7 +10867,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>676</v>
       </c>
@@ -10845,7 +10881,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>678</v>
       </c>
@@ -10859,7 +10895,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>680</v>
       </c>
@@ -10873,7 +10909,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>682</v>
       </c>
@@ -10887,7 +10923,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>686</v>
       </c>
@@ -10901,7 +10937,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>692</v>
       </c>
@@ -10915,7 +10951,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>694</v>
       </c>
@@ -10929,7 +10965,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>584</v>
       </c>
@@ -10943,7 +10979,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>984</v>
       </c>
@@ -10957,7 +10993,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>558</v>
       </c>
@@ -10971,7 +11007,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>552</v>
       </c>
@@ -10985,7 +11021,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>554</v>
       </c>
@@ -10999,7 +11035,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>602</v>
       </c>
@@ -11013,7 +11049,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>658</v>
       </c>
@@ -11027,7 +11063,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>656</v>
       </c>
@@ -11041,7 +11077,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
         <v>638</v>
       </c>
@@ -11055,7 +11091,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>630</v>
       </c>
@@ -11069,7 +11105,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
         <v>556</v>
       </c>
@@ -11083,7 +11119,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>594</v>
       </c>
@@ -11099,7 +11135,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
         <v>562</v>
       </c>
@@ -11113,7 +11149,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>578</v>
       </c>
@@ -11127,7 +11163,7 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
         <v>644</v>
       </c>
@@ -11141,7 +11177,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>640</v>
       </c>
@@ -11155,7 +11191,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>576</v>
       </c>
@@ -11169,7 +11205,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>622</v>
       </c>
@@ -11183,7 +11219,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>628</v>
       </c>
@@ -11197,7 +11233,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>626</v>
       </c>
@@ -11211,7 +11247,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>662</v>
       </c>
@@ -11225,7 +11261,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>660</v>
       </c>
@@ -11239,7 +11275,7 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>650</v>
       </c>
@@ -11253,7 +11289,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>582</v>
       </c>
@@ -11267,7 +11303,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
         <v>546</v>
       </c>
@@ -11281,7 +11317,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>672</v>
       </c>
@@ -11295,7 +11331,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>674</v>
       </c>
@@ -11309,7 +11345,7 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>688</v>
       </c>
@@ -11323,7 +11359,7 @@
       <c r="G50" s="160"/>
       <c r="H50" s="160"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>568</v>
       </c>
@@ -11339,7 +11375,7 @@
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
         <v>570</v>
       </c>
@@ -11361,13 +11397,15 @@
       <c r="G52" s="56" t="s">
         <v>1001</v>
       </c>
-      <c r="H52" s="57"/>
+      <c r="H52" s="57" t="s">
+        <v>1002</v>
+      </c>
       <c r="I52" s="54" t="s">
         <v>1134</v>
       </c>
       <c r="J52" s="58"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>606</v>
       </c>
@@ -11381,7 +11419,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>614</v>
       </c>
@@ -11395,7 +11433,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
         <v>624</v>
       </c>
@@ -11417,12 +11455,14 @@
       <c r="G55" s="53" t="s">
         <v>1001</v>
       </c>
-      <c r="H55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>1002</v>
+      </c>
       <c r="I55" s="50" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>548</v>
       </c>
@@ -11436,7 +11476,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
         <v>608</v>
       </c>
@@ -11450,7 +11490,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>590</v>
       </c>
@@ -11464,7 +11504,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>690</v>
       </c>
@@ -11478,7 +11518,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>550</v>
       </c>
@@ -11492,7 +11532,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="92" t="s">
         <v>632</v>
       </c>
@@ -11501,7 +11541,7 @@
       </c>
       <c r="H61" s="232"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>586</v>
       </c>
@@ -11515,7 +11555,7 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>604</v>
       </c>
@@ -11529,7 +11569,7 @@
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>592</v>
       </c>
@@ -11543,7 +11583,7 @@
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>610</v>
       </c>
@@ -11566,7 +11606,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
         <v>634</v>
       </c>
@@ -11580,7 +11620,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>574</v>
       </c>
@@ -11594,7 +11634,7 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>600</v>
       </c>
@@ -11608,7 +11648,7 @@
       <c r="G68" s="207"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="92" t="s">
         <v>654</v>
       </c>
@@ -11622,7 +11662,7 @@
       <c r="G69" s="55"/>
       <c r="H69" s="206"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>616</v>
       </c>
@@ -11636,7 +11676,7 @@
       <c r="G70" s="207"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="32" t="s">
         <v>588</v>
       </c>
@@ -11650,7 +11690,7 @@
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>598</v>
       </c>
@@ -11664,7 +11704,7 @@
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
         <v>612</v>
       </c>
@@ -11678,7 +11718,7 @@
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>648</v>
       </c>
@@ -11692,23 +11732,21 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="32" t="s">
         <v>636</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>1022</v>
-      </c>
+      <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="98"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>580</v>
       </c>
@@ -11722,7 +11760,7 @@
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>684</v>
       </c>
@@ -11736,7 +11774,7 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
         <v>618</v>
       </c>
@@ -11750,7 +11788,7 @@
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>620</v>
       </c>
@@ -11764,7 +11802,7 @@
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>994</v>
       </c>
@@ -11778,7 +11816,7 @@
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>4</v>
       </c>
@@ -11793,21 +11831,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11833,7 +11871,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>844</v>
       </c>
@@ -11847,7 +11885,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>842</v>
       </c>
@@ -11861,7 +11899,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>702</v>
       </c>
@@ -11875,7 +11913,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>730</v>
       </c>
@@ -11889,7 +11927,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>736</v>
       </c>
@@ -11903,7 +11941,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>738</v>
       </c>
@@ -11917,7 +11955,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>750</v>
       </c>
@@ -11931,7 +11969,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>756</v>
       </c>
@@ -11945,7 +11983,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>758</v>
       </c>
@@ -11969,7 +12007,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>760</v>
       </c>
@@ -11983,7 +12021,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>764</v>
       </c>
@@ -11997,7 +12035,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>766</v>
       </c>
@@ -12021,7 +12059,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>772</v>
       </c>
@@ -12035,7 +12073,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>776</v>
       </c>
@@ -12049,7 +12087,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>784</v>
       </c>
@@ -12063,7 +12101,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>786</v>
       </c>
@@ -12077,7 +12115,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>788</v>
       </c>
@@ -12091,7 +12129,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>808</v>
       </c>
@@ -12115,7 +12153,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>820</v>
       </c>
@@ -12129,7 +12167,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>822</v>
       </c>
@@ -12143,7 +12181,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>824</v>
       </c>
@@ -12157,7 +12195,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>826</v>
       </c>
@@ -12171,7 +12209,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>828</v>
       </c>
@@ -12185,7 +12223,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>832</v>
       </c>
@@ -12199,7 +12237,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>834</v>
       </c>
@@ -12213,7 +12251,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>838</v>
       </c>
@@ -12227,7 +12265,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>814</v>
       </c>
@@ -12241,7 +12279,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>818</v>
       </c>
@@ -12255,7 +12293,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>790</v>
       </c>
@@ -12269,7 +12307,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>985</v>
       </c>
@@ -12283,7 +12321,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>762</v>
       </c>
@@ -12297,7 +12335,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>770</v>
       </c>
@@ -12311,7 +12349,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>780</v>
       </c>
@@ -12325,7 +12363,7 @@
       <c r="G34" s="57"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>782</v>
       </c>
@@ -12339,7 +12377,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>804</v>
       </c>
@@ -12353,7 +12391,7 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>704</v>
       </c>
@@ -12367,7 +12405,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>810</v>
       </c>
@@ -12381,7 +12419,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>792</v>
       </c>
@@ -12395,7 +12433,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>802</v>
       </c>
@@ -12409,7 +12447,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>726</v>
       </c>
@@ -12423,7 +12461,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>734</v>
       </c>
@@ -12437,7 +12475,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>708</v>
       </c>
@@ -12451,7 +12489,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>754</v>
       </c>
@@ -12465,7 +12503,7 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>714</v>
       </c>
@@ -12479,7 +12517,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>718</v>
       </c>
@@ -12493,7 +12531,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>816</v>
       </c>
@@ -12507,7 +12545,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>778</v>
       </c>
@@ -12521,7 +12559,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>840</v>
       </c>
@@ -12535,7 +12573,7 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>746</v>
       </c>
@@ -12549,7 +12587,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>722</v>
       </c>
@@ -12563,7 +12601,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>728</v>
       </c>
@@ -12577,7 +12615,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>800</v>
       </c>
@@ -12591,7 +12629,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>716</v>
       </c>
@@ -12605,7 +12643,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>796</v>
       </c>
@@ -12619,7 +12657,7 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>740</v>
       </c>
@@ -12633,7 +12671,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>732</v>
       </c>
@@ -12647,7 +12685,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>812</v>
       </c>
@@ -12661,7 +12699,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>720</v>
       </c>
@@ -12675,7 +12713,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>710</v>
       </c>
@@ -12689,7 +12727,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>712</v>
       </c>
@@ -12703,7 +12741,7 @@
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>700</v>
       </c>
@@ -12717,23 +12755,21 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>724</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="C63" s="104" t="s">
-        <v>1022</v>
-      </c>
+      <c r="C63" s="104"/>
       <c r="D63" s="104"/>
       <c r="E63" s="104"/>
       <c r="F63" s="104"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>798</v>
       </c>
@@ -12747,7 +12783,7 @@
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>748</v>
       </c>
@@ -12761,7 +12797,7 @@
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>806</v>
       </c>
@@ -12775,7 +12811,7 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>742</v>
       </c>
@@ -12789,7 +12825,7 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>706</v>
       </c>
@@ -12803,7 +12839,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>830</v>
       </c>
@@ -12817,7 +12853,7 @@
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>836</v>
       </c>
@@ -12831,7 +12867,7 @@
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>774</v>
       </c>
@@ -12845,7 +12881,7 @@
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>744</v>
       </c>
@@ -12859,7 +12895,7 @@
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>768</v>
       </c>
@@ -12873,7 +12909,7 @@
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
         <v>752</v>
       </c>
@@ -12887,7 +12923,7 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>794</v>
       </c>
@@ -12900,11 +12936,6 @@
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12918,21 +12949,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="20" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" style="124"/>
+    <col min="1" max="1" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" style="20" customWidth="1"/>
+    <col min="7" max="8" width="8.44140625" style="124"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12958,7 +12989,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>846</v>
       </c>
@@ -12972,7 +13003,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>848</v>
       </c>
@@ -12986,7 +13017,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>854</v>
       </c>
@@ -13000,7 +13031,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>856</v>
       </c>
@@ -13014,7 +13045,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>858</v>
       </c>
@@ -13028,7 +13059,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>862</v>
       </c>
@@ -13042,7 +13073,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>868</v>
       </c>
@@ -13056,7 +13087,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>870</v>
       </c>
@@ -13070,7 +13101,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>872</v>
       </c>
@@ -13084,7 +13115,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>874</v>
       </c>
@@ -13098,7 +13129,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>876</v>
       </c>
@@ -13112,7 +13143,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>878</v>
       </c>
@@ -13126,7 +13157,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>880</v>
       </c>
@@ -13140,7 +13171,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>882</v>
       </c>
@@ -13154,7 +13185,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>886</v>
       </c>
@@ -13168,7 +13199,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>888</v>
       </c>
@@ -13182,7 +13213,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>893</v>
       </c>
@@ -13196,7 +13227,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>895</v>
       </c>
@@ -13210,7 +13241,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>901</v>
       </c>
@@ -13224,7 +13255,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>905</v>
       </c>
@@ -13238,7 +13269,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>907</v>
       </c>
@@ -13252,7 +13283,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>913</v>
       </c>
@@ -13266,7 +13297,7 @@
       <c r="G23" s="65"/>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>915</v>
       </c>
@@ -13280,7 +13311,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>919</v>
       </c>
@@ -13294,7 +13325,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>923</v>
       </c>
@@ -13308,7 +13339,7 @@
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>925</v>
       </c>
@@ -13322,7 +13353,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>929</v>
       </c>
@@ -13336,7 +13367,7 @@
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>939</v>
       </c>
@@ -13350,7 +13381,7 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>943</v>
       </c>
@@ -13364,7 +13395,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>945</v>
       </c>
@@ -13378,7 +13409,7 @@
       <c r="G31" s="160"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>963</v>
       </c>
@@ -13402,7 +13433,7 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>963</v>
       </c>
@@ -13426,7 +13457,7 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>957</v>
       </c>
@@ -13435,7 +13466,7 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>947</v>
       </c>
@@ -13449,7 +13480,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>941</v>
       </c>
@@ -13463,7 +13494,7 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>978</v>
       </c>
@@ -13477,7 +13508,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>980</v>
       </c>
@@ -13491,7 +13522,7 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>884</v>
       </c>
@@ -13505,7 +13536,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>860</v>
       </c>
@@ -13519,7 +13550,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>852</v>
       </c>
@@ -13533,7 +13564,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>899</v>
       </c>
@@ -13547,7 +13578,7 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>933</v>
       </c>
@@ -13561,7 +13592,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>935</v>
       </c>
@@ -13575,7 +13606,7 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>864</v>
       </c>
@@ -13589,7 +13620,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>850</v>
       </c>
@@ -13603,7 +13634,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>866</v>
       </c>
@@ -13617,7 +13648,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>961</v>
       </c>
@@ -13631,7 +13662,7 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>921</v>
       </c>
@@ -13645,7 +13676,7 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>955</v>
       </c>
@@ -13659,7 +13690,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>911</v>
       </c>
@@ -13673,7 +13704,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>949</v>
       </c>
@@ -13687,7 +13718,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>890</v>
       </c>
@@ -13701,7 +13732,7 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>903</v>
       </c>
@@ -13715,7 +13746,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>927</v>
       </c>
@@ -13729,7 +13760,7 @@
       <c r="G55" s="53"/>
       <c r="H55" s="53"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>909</v>
       </c>
@@ -13743,7 +13774,7 @@
       <c r="G56" s="53"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>897</v>
       </c>
@@ -13757,7 +13788,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>937</v>
       </c>
@@ -13771,7 +13802,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>931</v>
       </c>
@@ -13785,7 +13816,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>917</v>
       </c>
@@ -13799,7 +13830,7 @@
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>953</v>
       </c>
@@ -13813,7 +13844,7 @@
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>951</v>
       </c>
@@ -13827,7 +13858,7 @@
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>892</v>
       </c>
@@ -13841,7 +13872,7 @@
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>959</v>
       </c>
@@ -13855,7 +13886,7 @@
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>2</v>
       </c>
